--- a/Code/Results/Cases/Case_2_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_144/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.23980426947654</v>
+        <v>15.55806759907682</v>
       </c>
       <c r="C2">
-        <v>6.438391474523872</v>
+        <v>8.540528589571126</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.540396941464659</v>
+        <v>14.10198856038042</v>
       </c>
       <c r="F2">
-        <v>34.91501787439929</v>
+        <v>45.7121609316297</v>
       </c>
       <c r="G2">
-        <v>42.57342999359562</v>
+        <v>51.62137166458338</v>
       </c>
       <c r="H2">
-        <v>13.76865733918913</v>
+        <v>19.9799272873642</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.352889208526246</v>
+        <v>9.608903133348065</v>
       </c>
       <c r="K2">
-        <v>10.73941323461979</v>
+        <v>11.41440754542955</v>
       </c>
       <c r="L2">
-        <v>7.084553655867889</v>
+        <v>11.47510604193225</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.40726111370283</v>
+        <v>15.4060128603375</v>
       </c>
       <c r="C3">
-        <v>6.383294538116169</v>
+        <v>8.522617624406783</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.371702141365111</v>
+        <v>14.10863788487438</v>
       </c>
       <c r="F3">
-        <v>34.13275653393733</v>
+        <v>45.67171881958199</v>
       </c>
       <c r="G3">
-        <v>41.84555927439611</v>
+        <v>51.57878513774838</v>
       </c>
       <c r="H3">
-        <v>13.73931646409314</v>
+        <v>20.01264539227814</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.405437527669942</v>
+        <v>9.620583546541793</v>
       </c>
       <c r="K3">
-        <v>10.04706443179023</v>
+        <v>11.31511672461193</v>
       </c>
       <c r="L3">
-        <v>6.88569275478716</v>
+        <v>11.47221032041698</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.87665167294548</v>
+        <v>15.3157340377111</v>
       </c>
       <c r="C4">
-        <v>6.349249072697017</v>
+        <v>8.51130705454386</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.27039420044091</v>
+        <v>14.114740175127</v>
       </c>
       <c r="F4">
-        <v>33.66829112616168</v>
+        <v>45.65616804600596</v>
       </c>
       <c r="G4">
-        <v>41.42676280848301</v>
+        <v>51.5640173244451</v>
       </c>
       <c r="H4">
-        <v>13.72913325338262</v>
+        <v>20.03566352009329</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.438140810981268</v>
+        <v>9.628055132384107</v>
       </c>
       <c r="K4">
-        <v>9.598956916199336</v>
+        <v>11.25642730046902</v>
       </c>
       <c r="L4">
-        <v>6.764100011227312</v>
+        <v>11.47221289140771</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.65572895050948</v>
+        <v>15.2797606330304</v>
       </c>
       <c r="C5">
-        <v>6.33531384966891</v>
+        <v>8.506619269600597</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.229721744310719</v>
+        <v>14.11773579936433</v>
       </c>
       <c r="F5">
-        <v>33.48311824781313</v>
+        <v>45.65216898181959</v>
       </c>
       <c r="G5">
-        <v>41.2630934575658</v>
+        <v>51.56086162301161</v>
       </c>
       <c r="H5">
-        <v>13.72688452309991</v>
+        <v>20.04577933531914</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.451588201535817</v>
+        <v>9.631175510347667</v>
       </c>
       <c r="K5">
-        <v>9.410540942632991</v>
+        <v>11.23310809404046</v>
       </c>
       <c r="L5">
-        <v>6.714742729060143</v>
+        <v>11.47266319672898</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.61876778914076</v>
+        <v>15.27383771305151</v>
       </c>
       <c r="C6">
-        <v>6.332996010499116</v>
+        <v>8.505836120344805</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.223006204845831</v>
+        <v>14.11826398455059</v>
       </c>
       <c r="F6">
-        <v>33.4526213424198</v>
+        <v>45.65164624418327</v>
       </c>
       <c r="G6">
-        <v>41.23633608047363</v>
+        <v>51.56051047496155</v>
       </c>
       <c r="H6">
-        <v>13.72662394951222</v>
+        <v>20.04750347065896</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.453828699731012</v>
+        <v>9.631698223422106</v>
       </c>
       <c r="K6">
-        <v>9.378903232263392</v>
+        <v>11.22927273651169</v>
       </c>
       <c r="L6">
-        <v>6.706560585204009</v>
+        <v>11.47276514471121</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.87369095743376</v>
+        <v>15.3152455315993</v>
       </c>
       <c r="C7">
-        <v>6.349061395067254</v>
+        <v>8.511244151673433</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.269843149273253</v>
+        <v>14.1147785133766</v>
       </c>
       <c r="F7">
-        <v>33.66577706883985</v>
+        <v>45.65610464232586</v>
       </c>
       <c r="G7">
-        <v>41.42452730428729</v>
+        <v>51.56396317702343</v>
       </c>
       <c r="H7">
-        <v>13.72909531908557</v>
+        <v>20.03579696768388</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.438321665984066</v>
+        <v>9.628096908255841</v>
       </c>
       <c r="K7">
-        <v>9.596439417745353</v>
+        <v>11.25611035921157</v>
       </c>
       <c r="L7">
-        <v>6.763433493288061</v>
+        <v>11.47221714347032</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.9568745879158</v>
+        <v>15.50502399334272</v>
       </c>
       <c r="C8">
-        <v>6.419434266978899</v>
+        <v>8.53441794997361</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.481783709242798</v>
+        <v>14.103862749798</v>
       </c>
       <c r="F8">
-        <v>34.64207634163996</v>
+        <v>45.69629324829801</v>
       </c>
       <c r="G8">
-        <v>42.31658255148614</v>
+        <v>51.60432674152512</v>
       </c>
       <c r="H8">
-        <v>13.75687363721392</v>
+        <v>19.99060010148719</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.370923286607399</v>
+        <v>9.612868485898758</v>
       </c>
       <c r="K8">
-        <v>10.50544853021228</v>
+        <v>11.37971511432415</v>
       </c>
       <c r="L8">
-        <v>7.0159187074675</v>
+        <v>11.47373900509994</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.92075713192907</v>
+        <v>15.89979042705104</v>
       </c>
       <c r="C9">
-        <v>6.556092699554796</v>
+        <v>8.577373314461232</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.913672683833642</v>
+        <v>14.09843146323078</v>
       </c>
       <c r="F9">
-        <v>36.67715614011619</v>
+        <v>45.84849447373166</v>
       </c>
       <c r="G9">
-        <v>44.29181100942908</v>
+        <v>51.77367260442076</v>
       </c>
       <c r="H9">
-        <v>13.87659754709519</v>
+        <v>19.92524390571324</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.241731572091933</v>
+        <v>9.585371568249958</v>
       </c>
       <c r="K9">
-        <v>12.10698201317403</v>
+        <v>11.63901075704613</v>
       </c>
       <c r="L9">
-        <v>7.512425512654727</v>
+        <v>11.49077837001723</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.3351611178768</v>
+        <v>16.20104904796498</v>
       </c>
       <c r="C10">
-        <v>6.656267065881798</v>
+        <v>8.607412881171776</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.238655103374761</v>
+        <v>14.1041069303327</v>
       </c>
       <c r="F10">
-        <v>38.23924865537628</v>
+        <v>46.00463687396758</v>
       </c>
       <c r="G10">
-        <v>45.88407776110215</v>
+        <v>51.95281507287211</v>
       </c>
       <c r="H10">
-        <v>14.00867237846992</v>
+        <v>19.89145885927578</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.147868806484138</v>
+        <v>9.566593963042495</v>
       </c>
       <c r="K10">
-        <v>13.17580365115443</v>
+        <v>11.83822591510056</v>
       </c>
       <c r="L10">
-        <v>7.874848305181081</v>
+        <v>11.51175880344585</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.98015052924841</v>
+        <v>16.33997791702568</v>
       </c>
       <c r="C11">
-        <v>6.70194273600001</v>
+        <v>8.620748177931683</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.387729647593741</v>
+        <v>14.10876952860266</v>
       </c>
       <c r="F11">
-        <v>38.96321989337381</v>
+        <v>46.08517162678311</v>
       </c>
       <c r="G11">
-        <v>46.63974169185676</v>
+        <v>52.04609593925527</v>
       </c>
       <c r="H11">
-        <v>14.07929312619537</v>
+        <v>19.87918703094084</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.105211031864956</v>
+        <v>9.558356966630315</v>
       </c>
       <c r="K11">
-        <v>13.63929389614778</v>
+        <v>11.93039372196398</v>
       </c>
       <c r="L11">
-        <v>8.038644850619397</v>
+        <v>11.52311431806778</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.21990287984733</v>
+        <v>16.39281057014234</v>
       </c>
       <c r="C12">
-        <v>6.719268737919116</v>
+        <v>8.625750379557248</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.444325827466646</v>
+        <v>14.11083254561269</v>
       </c>
       <c r="F12">
-        <v>39.23921067748332</v>
+        <v>46.117021739446</v>
       </c>
       <c r="G12">
-        <v>46.93045583915199</v>
+        <v>52.08310206441757</v>
       </c>
       <c r="H12">
-        <v>14.10763176778775</v>
+        <v>19.87498579252819</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.089046517203123</v>
+        <v>9.555281405994874</v>
       </c>
       <c r="K12">
-        <v>13.81159979576848</v>
+        <v>11.96548730967629</v>
       </c>
       <c r="L12">
-        <v>8.100477112181139</v>
+        <v>11.52767226862591</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.16846629933949</v>
+        <v>16.38142293907071</v>
       </c>
       <c r="C13">
-        <v>6.715535706992444</v>
+        <v>8.624675184772013</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.432130872530831</v>
+        <v>14.1103750419754</v>
       </c>
       <c r="F13">
-        <v>39.17969045312213</v>
+        <v>46.11010228769168</v>
       </c>
       <c r="G13">
-        <v>46.8676414982458</v>
+        <v>52.07505751556467</v>
       </c>
       <c r="H13">
-        <v>14.10145623899979</v>
+        <v>19.87587076937241</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.0925286059323</v>
+        <v>9.5559418473871</v>
       </c>
       <c r="K13">
-        <v>13.77463229272791</v>
+        <v>11.95792123839039</v>
       </c>
       <c r="L13">
-        <v>8.087169619137553</v>
+        <v>11.52667920746196</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.9999646191974</v>
+        <v>16.34432028846445</v>
       </c>
       <c r="C14">
-        <v>6.703367473957093</v>
+        <v>8.62116066663819</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.39238312260653</v>
+        <v>14.10893330503214</v>
       </c>
       <c r="F14">
-        <v>38.98588937578605</v>
+        <v>46.08776491406869</v>
       </c>
       <c r="G14">
-        <v>46.66356715828018</v>
+        <v>52.04910681058074</v>
       </c>
       <c r="H14">
-        <v>14.08159210519532</v>
+        <v>19.87883245500183</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.103881488722505</v>
+        <v>9.558103065813084</v>
       </c>
       <c r="K14">
-        <v>13.65353353282184</v>
+        <v>11.93327722590732</v>
       </c>
       <c r="L14">
-        <v>8.043735919976802</v>
+        <v>11.52348415106368</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.89617012019031</v>
+        <v>16.3216215114417</v>
       </c>
       <c r="C15">
-        <v>6.695918395636386</v>
+        <v>8.619001721172086</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.368054424099295</v>
+        <v>14.10808887216765</v>
       </c>
       <c r="F15">
-        <v>38.86741794046184</v>
+        <v>46.07425844849254</v>
       </c>
       <c r="G15">
-        <v>46.53916150208941</v>
+        <v>52.03342998504807</v>
       </c>
       <c r="H15">
-        <v>14.06963504005924</v>
+        <v>19.88070464610941</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.110833506584236</v>
+        <v>9.559432546502956</v>
       </c>
       <c r="K15">
-        <v>13.57894116536903</v>
+        <v>11.91820611164527</v>
       </c>
       <c r="L15">
-        <v>8.017105196592365</v>
+        <v>11.52156058747128</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.29237650833843</v>
+        <v>16.19200356341507</v>
       </c>
       <c r="C16">
-        <v>6.65328537261705</v>
+        <v>8.606534737568023</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.228934731114222</v>
+        <v>14.10384393694409</v>
       </c>
       <c r="F16">
-        <v>38.1921967971362</v>
+        <v>45.99956388729429</v>
       </c>
       <c r="G16">
-        <v>45.83532828466793</v>
+        <v>51.94695514113854</v>
       </c>
       <c r="H16">
-        <v>14.00427605811015</v>
+        <v>19.89232321744173</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.150656012122551</v>
+        <v>9.567138386566048</v>
       </c>
       <c r="K16">
-        <v>13.14506120929769</v>
+        <v>11.83223100462022</v>
       </c>
       <c r="L16">
-        <v>7.864118700783942</v>
+        <v>11.51105292474399</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.91388077055732</v>
+        <v>16.11293589913337</v>
       </c>
       <c r="C17">
-        <v>6.627168182307513</v>
+        <v>8.598802054508747</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.143881747356799</v>
+        <v>14.1017714973864</v>
       </c>
       <c r="F17">
-        <v>37.7813283021518</v>
+        <v>45.95616654605185</v>
       </c>
       <c r="G17">
-        <v>45.41161030043656</v>
+        <v>51.89691666452708</v>
       </c>
       <c r="H17">
-        <v>13.9669364134528</v>
+        <v>19.90024445945287</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.175084809353657</v>
+        <v>9.571943615916407</v>
       </c>
       <c r="K17">
-        <v>12.87311080530992</v>
+        <v>11.77986190581896</v>
       </c>
       <c r="L17">
-        <v>7.769961622260332</v>
+        <v>11.50506895776019</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.6931823040904</v>
+        <v>16.06763853321083</v>
       </c>
       <c r="C18">
-        <v>6.612155263136326</v>
+        <v>8.594323381634029</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.09507986431149</v>
+        <v>14.1007754580257</v>
       </c>
       <c r="F18">
-        <v>37.5462696858885</v>
+        <v>45.93210108354167</v>
       </c>
       <c r="G18">
-        <v>45.17084444383656</v>
+        <v>51.86924628278228</v>
       </c>
       <c r="H18">
-        <v>13.94644670000956</v>
+        <v>19.90509204622687</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.18914054852024</v>
+        <v>9.574736182612995</v>
       </c>
       <c r="K18">
-        <v>12.71454948876315</v>
+        <v>11.74988772652466</v>
       </c>
       <c r="L18">
-        <v>7.715706100635586</v>
+        <v>11.50179780497947</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.61794040770568</v>
+        <v>16.05233404033649</v>
       </c>
       <c r="C19">
-        <v>6.607073282737004</v>
+        <v>8.592801653795854</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.078577780932175</v>
+        <v>14.10047192798333</v>
       </c>
       <c r="F19">
-        <v>37.4669025236421</v>
+        <v>45.92410712473188</v>
       </c>
       <c r="G19">
-        <v>45.08982967041221</v>
+        <v>51.8600686277177</v>
       </c>
       <c r="H19">
-        <v>13.93967634581178</v>
+        <v>19.90678340483287</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.19390091652989</v>
+        <v>9.575686639108627</v>
       </c>
       <c r="K19">
-        <v>12.66049363067332</v>
+        <v>11.73976517959437</v>
       </c>
       <c r="L19">
-        <v>7.697320454206738</v>
+        <v>11.50071963768311</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.9544819831716</v>
+        <v>16.12133447664834</v>
       </c>
       <c r="C20">
-        <v>6.629947372054416</v>
+        <v>8.599628425268593</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.152923786588369</v>
+        <v>14.10197184240219</v>
       </c>
       <c r="F20">
-        <v>37.82493600736896</v>
+        <v>45.96069367426128</v>
       </c>
       <c r="G20">
-        <v>45.45641059362514</v>
+        <v>51.90212850398819</v>
       </c>
       <c r="H20">
-        <v>13.97080854885182</v>
+        <v>19.899371057003</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.172483927726663</v>
+        <v>9.571429119850512</v>
       </c>
       <c r="K20">
-        <v>12.90228173159327</v>
+        <v>11.78542167689102</v>
       </c>
       <c r="L20">
-        <v>7.77999534505379</v>
+        <v>11.50568831625269</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.04957885443595</v>
+        <v>16.35521255522369</v>
       </c>
       <c r="C21">
-        <v>6.706940651203263</v>
+        <v>8.622194258495911</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.404054314272235</v>
+        <v>14.10934872223613</v>
       </c>
       <c r="F21">
-        <v>39.04276411109672</v>
+        <v>46.09428932743338</v>
       </c>
       <c r="G21">
-        <v>46.72338446408374</v>
+        <v>52.05668360354585</v>
       </c>
       <c r="H21">
-        <v>14.08738271132334</v>
+        <v>19.87795043306387</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.100547310627935</v>
+        <v>9.557467081980571</v>
       </c>
       <c r="K21">
-        <v>13.68918972842376</v>
+        <v>11.94051081094973</v>
       </c>
       <c r="L21">
-        <v>8.056498999092407</v>
+        <v>11.52441563998456</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.73915319657219</v>
+        <v>16.50934506017941</v>
       </c>
       <c r="C22">
-        <v>6.757440900974905</v>
+        <v>8.636664897310151</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.569014475763401</v>
+        <v>14.11590242101664</v>
       </c>
       <c r="F22">
-        <v>39.84937924437578</v>
+        <v>46.18948283874871</v>
       </c>
       <c r="G22">
-        <v>47.57804388422726</v>
+        <v>52.16749503100429</v>
       </c>
       <c r="H22">
-        <v>14.17291313409294</v>
+        <v>19.86654963411249</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.053459831364013</v>
+        <v>9.548596166091881</v>
       </c>
       <c r="K22">
-        <v>14.18481399957857</v>
+        <v>12.04297346157998</v>
       </c>
       <c r="L22">
-        <v>8.236065872745254</v>
+        <v>11.53815671296588</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.37347705333802</v>
+        <v>16.42698025392845</v>
       </c>
       <c r="C23">
-        <v>6.730466181396891</v>
+        <v>8.628967081206511</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.480906000653647</v>
+        <v>14.11224670644883</v>
       </c>
       <c r="F23">
-        <v>39.41791691572107</v>
+        <v>46.13795999520185</v>
       </c>
       <c r="G23">
-        <v>47.11943867962916</v>
+        <v>52.10746076626403</v>
       </c>
       <c r="H23">
-        <v>14.12638183799946</v>
+        <v>19.8723965366056</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.078603936396287</v>
+        <v>9.553307575192129</v>
       </c>
       <c r="K23">
-        <v>13.92197666343618</v>
+        <v>11.98819633443004</v>
       </c>
       <c r="L23">
-        <v>8.140343829274158</v>
+        <v>11.53068635074002</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.93613582499582</v>
+        <v>16.11753697869233</v>
       </c>
       <c r="C24">
-        <v>6.628690894576586</v>
+        <v>8.599254926003534</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.148835578411466</v>
+        <v>14.10188065754208</v>
       </c>
       <c r="F24">
-        <v>37.80521735914596</v>
+        <v>45.95864420414809</v>
       </c>
       <c r="G24">
-        <v>45.43614755381626</v>
+        <v>51.89976881196924</v>
       </c>
       <c r="H24">
-        <v>13.96905491829258</v>
+        <v>19.89976500780681</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.17365974986696</v>
+        <v>9.571661630116406</v>
       </c>
       <c r="K24">
-        <v>12.88910045452692</v>
+        <v>11.78290768618373</v>
       </c>
       <c r="L24">
-        <v>7.775459480123279</v>
+        <v>11.50540777733031</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.40732723970522</v>
+        <v>15.79083611525298</v>
       </c>
       <c r="C25">
-        <v>6.519210098944981</v>
+        <v>8.566019430156976</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.795331211308199</v>
+        <v>14.09819754024588</v>
       </c>
       <c r="F25">
-        <v>36.1144088111378</v>
+        <v>45.79950010621405</v>
       </c>
       <c r="G25">
-        <v>43.73290343401698</v>
+        <v>51.7182227528285</v>
       </c>
       <c r="H25">
-        <v>13.83678016036342</v>
+        <v>19.94042792154344</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.276437447303638</v>
+        <v>9.592558781969799</v>
       </c>
       <c r="K25">
-        <v>11.69286646124504</v>
+        <v>11.56721656610206</v>
       </c>
       <c r="L25">
-        <v>7.378309756334516</v>
+        <v>11.48467436754814</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_144/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.55806759907682</v>
+        <v>14.23980426947652</v>
       </c>
       <c r="C2">
-        <v>8.540528589571126</v>
+        <v>6.438391474523608</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.10198856038042</v>
+        <v>8.540396941464653</v>
       </c>
       <c r="F2">
-        <v>45.7121609316297</v>
+        <v>34.91501787439933</v>
       </c>
       <c r="G2">
-        <v>51.62137166458338</v>
+        <v>42.57342999359555</v>
       </c>
       <c r="H2">
-        <v>19.9799272873642</v>
+        <v>13.76865733918902</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.608903133348065</v>
+        <v>6.352889208526147</v>
       </c>
       <c r="K2">
-        <v>11.41440754542955</v>
+        <v>10.73941323461984</v>
       </c>
       <c r="L2">
-        <v>11.47510604193225</v>
+        <v>7.084553655867931</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.4060128603375</v>
+        <v>13.40726111370281</v>
       </c>
       <c r="C3">
-        <v>8.522617624406783</v>
+        <v>6.383294538116169</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.10863788487438</v>
+        <v>8.371702141365162</v>
       </c>
       <c r="F3">
-        <v>45.67171881958199</v>
+        <v>34.13275653393732</v>
       </c>
       <c r="G3">
-        <v>51.57878513774838</v>
+        <v>41.845559274396</v>
       </c>
       <c r="H3">
-        <v>20.01264539227814</v>
+        <v>13.73931646409303</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.620583546541793</v>
+        <v>6.405437527669942</v>
       </c>
       <c r="K3">
-        <v>11.31511672461193</v>
+        <v>10.04706443179021</v>
       </c>
       <c r="L3">
-        <v>11.47221032041698</v>
+        <v>6.885692754787177</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.3157340377111</v>
+        <v>12.87665167294545</v>
       </c>
       <c r="C4">
-        <v>8.51130705454386</v>
+        <v>6.349249072696882</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.114740175127</v>
+        <v>8.270394200441009</v>
       </c>
       <c r="F4">
-        <v>45.65616804600596</v>
+        <v>33.66829112616169</v>
       </c>
       <c r="G4">
-        <v>51.5640173244451</v>
+        <v>41.42676280848311</v>
       </c>
       <c r="H4">
-        <v>20.03566352009329</v>
+        <v>13.7291332533826</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.628055132384107</v>
+        <v>6.438140810981301</v>
       </c>
       <c r="K4">
-        <v>11.25642730046902</v>
+        <v>9.598956916199361</v>
       </c>
       <c r="L4">
-        <v>11.47221289140771</v>
+        <v>6.764100011227351</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.2797606330304</v>
+        <v>12.65572895050944</v>
       </c>
       <c r="C5">
-        <v>8.506619269600597</v>
+        <v>6.335313849668917</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.11773579936433</v>
+        <v>8.229721744310799</v>
       </c>
       <c r="F5">
-        <v>45.65216898181959</v>
+        <v>33.48311824781304</v>
       </c>
       <c r="G5">
-        <v>51.56086162301161</v>
+        <v>41.26309345756562</v>
       </c>
       <c r="H5">
-        <v>20.04577933531914</v>
+        <v>13.72688452309986</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.631175510347667</v>
+        <v>6.451588201535818</v>
       </c>
       <c r="K5">
-        <v>11.23310809404046</v>
+        <v>9.410540942633029</v>
       </c>
       <c r="L5">
-        <v>11.47266319672898</v>
+        <v>6.714742729060251</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.27383771305151</v>
+        <v>12.61876778914074</v>
       </c>
       <c r="C6">
-        <v>8.505836120344805</v>
+        <v>6.332996010499113</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.11826398455059</v>
+        <v>8.223006204845779</v>
       </c>
       <c r="F6">
-        <v>45.65164624418327</v>
+        <v>33.4526213424198</v>
       </c>
       <c r="G6">
-        <v>51.56051047496155</v>
+        <v>41.23633608047372</v>
       </c>
       <c r="H6">
-        <v>20.04750347065896</v>
+        <v>13.72662394951218</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.631698223422106</v>
+        <v>6.453828699730879</v>
       </c>
       <c r="K6">
-        <v>11.22927273651169</v>
+        <v>9.37890323226341</v>
       </c>
       <c r="L6">
-        <v>11.47276514471121</v>
+        <v>6.706560585203966</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.3152455315993</v>
+        <v>12.87369095743376</v>
       </c>
       <c r="C7">
-        <v>8.511244151673433</v>
+        <v>6.349061395067249</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.1147785133766</v>
+        <v>8.269843149273358</v>
       </c>
       <c r="F7">
-        <v>45.65610464232586</v>
+        <v>33.66577706883995</v>
       </c>
       <c r="G7">
-        <v>51.56396317702343</v>
+        <v>41.42452730428744</v>
       </c>
       <c r="H7">
-        <v>20.03579696768388</v>
+        <v>13.72909531908554</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.628096908255841</v>
+        <v>6.438321665984134</v>
       </c>
       <c r="K7">
-        <v>11.25611035921157</v>
+        <v>9.596439417745337</v>
       </c>
       <c r="L7">
-        <v>11.47221714347032</v>
+        <v>6.763433493288125</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.50502399334272</v>
+        <v>13.95687458791582</v>
       </c>
       <c r="C8">
-        <v>8.53441794997361</v>
+        <v>6.419434266978766</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.103862749798</v>
+        <v>8.481783709242571</v>
       </c>
       <c r="F8">
-        <v>45.69629324829801</v>
+        <v>34.64207634164003</v>
       </c>
       <c r="G8">
-        <v>51.60432674152512</v>
+        <v>42.31658255148655</v>
       </c>
       <c r="H8">
-        <v>19.99060010148719</v>
+        <v>13.75687363721406</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.612868485898758</v>
+        <v>6.37092328660737</v>
       </c>
       <c r="K8">
-        <v>11.37971511432415</v>
+        <v>10.50544853021218</v>
       </c>
       <c r="L8">
-        <v>11.47373900509994</v>
+        <v>7.015918707467404</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.89979042705104</v>
+        <v>15.92075713192906</v>
       </c>
       <c r="C9">
-        <v>8.577373314461232</v>
+        <v>6.556092699554804</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.09843146323078</v>
+        <v>8.913672683833456</v>
       </c>
       <c r="F9">
-        <v>45.84849447373166</v>
+        <v>36.67715614011595</v>
       </c>
       <c r="G9">
-        <v>51.77367260442076</v>
+        <v>44.29181100942887</v>
       </c>
       <c r="H9">
-        <v>19.92524390571324</v>
+        <v>13.87659754709508</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.585371568249958</v>
+        <v>6.241731572091932</v>
       </c>
       <c r="K9">
-        <v>11.63901075704613</v>
+        <v>12.10698201317402</v>
       </c>
       <c r="L9">
-        <v>11.49077837001723</v>
+        <v>7.512425512654647</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.20104904796498</v>
+        <v>17.33516111787676</v>
       </c>
       <c r="C10">
-        <v>8.607412881171776</v>
+        <v>6.656267065881928</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.1041069303327</v>
+        <v>9.23865510337483</v>
       </c>
       <c r="F10">
-        <v>46.00463687396758</v>
+        <v>38.23924865537638</v>
       </c>
       <c r="G10">
-        <v>51.95281507287211</v>
+        <v>45.8840777611022</v>
       </c>
       <c r="H10">
-        <v>19.89145885927578</v>
+        <v>14.00867237846994</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.566593963042495</v>
+        <v>6.147868806484105</v>
       </c>
       <c r="K10">
-        <v>11.83822591510056</v>
+        <v>13.17580365115444</v>
       </c>
       <c r="L10">
-        <v>11.51175880344585</v>
+        <v>7.874848305181096</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.33997791702568</v>
+        <v>17.98015052924843</v>
       </c>
       <c r="C11">
-        <v>8.620748177931683</v>
+        <v>6.701942735999879</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.10876952860266</v>
+        <v>9.387729647593734</v>
       </c>
       <c r="F11">
-        <v>46.08517162678311</v>
+        <v>38.96321989337383</v>
       </c>
       <c r="G11">
-        <v>52.04609593925527</v>
+        <v>46.63974169185669</v>
       </c>
       <c r="H11">
-        <v>19.87918703094084</v>
+        <v>14.07929312619543</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.558356966630315</v>
+        <v>6.105211031864923</v>
       </c>
       <c r="K11">
-        <v>11.93039372196398</v>
+        <v>13.63929389614783</v>
       </c>
       <c r="L11">
-        <v>11.52311431806778</v>
+        <v>8.038644850619407</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.39281057014234</v>
+        <v>18.21990287984725</v>
       </c>
       <c r="C12">
-        <v>8.625750379557248</v>
+        <v>6.719268737919121</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.11083254561269</v>
+        <v>9.444325827466612</v>
       </c>
       <c r="F12">
-        <v>46.117021739446</v>
+        <v>39.23921067748336</v>
       </c>
       <c r="G12">
-        <v>52.08310206441757</v>
+        <v>46.93045583915213</v>
       </c>
       <c r="H12">
-        <v>19.87498579252819</v>
+        <v>14.10763176778778</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.555281405994874</v>
+        <v>6.089046517203222</v>
       </c>
       <c r="K12">
-        <v>11.96548730967629</v>
+        <v>13.81159979576844</v>
       </c>
       <c r="L12">
-        <v>11.52767226862591</v>
+        <v>8.100477112181109</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.38142293907071</v>
+        <v>18.16846629933957</v>
       </c>
       <c r="C13">
-        <v>8.624675184772013</v>
+        <v>6.715535706992439</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.1103750419754</v>
+        <v>9.432130872530855</v>
       </c>
       <c r="F13">
-        <v>46.11010228769168</v>
+        <v>39.17969045312205</v>
       </c>
       <c r="G13">
-        <v>52.07505751556467</v>
+        <v>46.86764149824565</v>
       </c>
       <c r="H13">
-        <v>19.87587076937241</v>
+        <v>14.10145623899967</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.5559418473871</v>
+        <v>6.092528605932233</v>
       </c>
       <c r="K13">
-        <v>11.95792123839039</v>
+        <v>13.77463229272796</v>
       </c>
       <c r="L13">
-        <v>11.52667920746196</v>
+        <v>8.087169619137574</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.34432028846445</v>
+        <v>17.99996461919735</v>
       </c>
       <c r="C14">
-        <v>8.62116066663819</v>
+        <v>6.703367473957226</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.10893330503214</v>
+        <v>9.392383122606555</v>
       </c>
       <c r="F14">
-        <v>46.08776491406869</v>
+        <v>38.9858893757861</v>
       </c>
       <c r="G14">
-        <v>52.04910681058074</v>
+        <v>46.66356715828029</v>
       </c>
       <c r="H14">
-        <v>19.87883245500183</v>
+        <v>14.08159210519533</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.558103065813084</v>
+        <v>6.103881488722505</v>
       </c>
       <c r="K14">
-        <v>11.93327722590732</v>
+        <v>13.65353353282184</v>
       </c>
       <c r="L14">
-        <v>11.52348415106368</v>
+        <v>8.043735919976793</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.3216215114417</v>
+        <v>17.8961701201903</v>
       </c>
       <c r="C15">
-        <v>8.619001721172086</v>
+        <v>6.695918395636384</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.10808887216765</v>
+        <v>9.368054424099364</v>
       </c>
       <c r="F15">
-        <v>46.07425844849254</v>
+        <v>38.86741794046185</v>
       </c>
       <c r="G15">
-        <v>52.03342998504807</v>
+        <v>46.53916150208935</v>
       </c>
       <c r="H15">
-        <v>19.88070464610941</v>
+        <v>14.06963504005925</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.559432546502956</v>
+        <v>6.110833506584236</v>
       </c>
       <c r="K15">
-        <v>11.91820611164527</v>
+        <v>13.57894116536906</v>
       </c>
       <c r="L15">
-        <v>11.52156058747128</v>
+        <v>8.017105196592412</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.19200356341507</v>
+        <v>17.2923765083385</v>
       </c>
       <c r="C16">
-        <v>8.606534737568023</v>
+        <v>6.653285372616794</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.10384393694409</v>
+        <v>9.228934731114254</v>
       </c>
       <c r="F16">
-        <v>45.99956388729429</v>
+        <v>38.19219679713608</v>
       </c>
       <c r="G16">
-        <v>51.94695514113854</v>
+        <v>45.83532828466778</v>
       </c>
       <c r="H16">
-        <v>19.89232321744173</v>
+        <v>14.00427605811007</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.567138386566048</v>
+        <v>6.150656012122518</v>
       </c>
       <c r="K16">
-        <v>11.83223100462022</v>
+        <v>13.14506120929773</v>
       </c>
       <c r="L16">
-        <v>11.51105292474399</v>
+        <v>7.864118700783973</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.11293589913337</v>
+        <v>16.91388077055726</v>
       </c>
       <c r="C17">
-        <v>8.598802054508747</v>
+        <v>6.627168182307908</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.1017714973864</v>
+        <v>9.143881747356893</v>
       </c>
       <c r="F17">
-        <v>45.95616654605185</v>
+        <v>37.78132830215186</v>
       </c>
       <c r="G17">
-        <v>51.89691666452708</v>
+        <v>45.41161030043663</v>
       </c>
       <c r="H17">
-        <v>19.90024445945287</v>
+        <v>13.9669364134528</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.571943615916407</v>
+        <v>6.175084809353791</v>
       </c>
       <c r="K17">
-        <v>11.77986190581896</v>
+        <v>12.87311080530987</v>
       </c>
       <c r="L17">
-        <v>11.50506895776019</v>
+        <v>7.76996162226038</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.06763853321083</v>
+        <v>16.69318230409037</v>
       </c>
       <c r="C18">
-        <v>8.594323381634029</v>
+        <v>6.612155263136195</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.1007754580257</v>
+        <v>9.09507986431143</v>
       </c>
       <c r="F18">
-        <v>45.93210108354167</v>
+        <v>37.54626968588844</v>
       </c>
       <c r="G18">
-        <v>51.86924628278228</v>
+        <v>45.17084444383644</v>
       </c>
       <c r="H18">
-        <v>19.90509204622687</v>
+        <v>13.94644670000958</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.574736182612995</v>
+        <v>6.18914054852024</v>
       </c>
       <c r="K18">
-        <v>11.74988772652466</v>
+        <v>12.71454948876312</v>
       </c>
       <c r="L18">
-        <v>11.50179780497947</v>
+        <v>7.715706100635584</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.05233404033649</v>
+        <v>16.61794040770568</v>
       </c>
       <c r="C19">
-        <v>8.592801653795854</v>
+        <v>6.607073282737009</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.10047192798333</v>
+        <v>9.078577780932145</v>
       </c>
       <c r="F19">
-        <v>45.92410712473188</v>
+        <v>37.46690252364207</v>
       </c>
       <c r="G19">
-        <v>51.8600686277177</v>
+        <v>45.08982967041219</v>
       </c>
       <c r="H19">
-        <v>19.90678340483287</v>
+        <v>13.93967634581178</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.575686639108627</v>
+        <v>6.193900916529891</v>
       </c>
       <c r="K19">
-        <v>11.73976517959437</v>
+        <v>12.66049363067334</v>
       </c>
       <c r="L19">
-        <v>11.50071963768311</v>
+        <v>7.697320454206726</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.12133447664834</v>
+        <v>16.95448198317155</v>
       </c>
       <c r="C20">
-        <v>8.599628425268593</v>
+        <v>6.629947372054425</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.10197184240219</v>
+        <v>9.15292378658831</v>
       </c>
       <c r="F20">
-        <v>45.96069367426128</v>
+        <v>37.82493600736894</v>
       </c>
       <c r="G20">
-        <v>51.90212850398819</v>
+        <v>45.45641059362537</v>
       </c>
       <c r="H20">
-        <v>19.899371057003</v>
+        <v>13.97080854885191</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.571429119850512</v>
+        <v>6.172483927726796</v>
       </c>
       <c r="K20">
-        <v>11.78542167689102</v>
+        <v>12.90228173159326</v>
       </c>
       <c r="L20">
-        <v>11.50568831625269</v>
+        <v>7.779995345053761</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.35521255522369</v>
+        <v>18.04957885443595</v>
       </c>
       <c r="C21">
-        <v>8.622194258495911</v>
+        <v>6.706940651203136</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.10934872223613</v>
+        <v>9.404054314272187</v>
       </c>
       <c r="F21">
-        <v>46.09428932743338</v>
+        <v>39.04276411109675</v>
       </c>
       <c r="G21">
-        <v>52.05668360354585</v>
+        <v>46.72338446408391</v>
       </c>
       <c r="H21">
-        <v>19.87795043306387</v>
+        <v>14.08738271132338</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.557467081980571</v>
+        <v>6.100547310627936</v>
       </c>
       <c r="K21">
-        <v>11.94051081094973</v>
+        <v>13.68918972842376</v>
       </c>
       <c r="L21">
-        <v>11.52441563998456</v>
+        <v>8.056498999092351</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.50934506017941</v>
+        <v>18.73915319657221</v>
       </c>
       <c r="C22">
-        <v>8.636664897310151</v>
+        <v>6.757440900974903</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.11590242101664</v>
+        <v>9.569014475763366</v>
       </c>
       <c r="F22">
-        <v>46.18948283874871</v>
+        <v>39.84937924437567</v>
       </c>
       <c r="G22">
-        <v>52.16749503100429</v>
+        <v>47.57804388422721</v>
       </c>
       <c r="H22">
-        <v>19.86654963411249</v>
+        <v>14.17291313409288</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.548596166091881</v>
+        <v>6.053459831364012</v>
       </c>
       <c r="K22">
-        <v>12.04297346157998</v>
+        <v>14.18481399957858</v>
       </c>
       <c r="L22">
-        <v>11.53815671296588</v>
+        <v>8.236065872745247</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.42698025392845</v>
+        <v>18.37347705333799</v>
       </c>
       <c r="C23">
-        <v>8.628967081206511</v>
+        <v>6.73046618139677</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.11224670644883</v>
+        <v>9.48090600065373</v>
       </c>
       <c r="F23">
-        <v>46.13795999520185</v>
+        <v>39.41791691572118</v>
       </c>
       <c r="G23">
-        <v>52.10746076626403</v>
+        <v>47.1194386796293</v>
       </c>
       <c r="H23">
-        <v>19.8723965366056</v>
+        <v>14.12638183799959</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.553307575192129</v>
+        <v>6.078603936396454</v>
       </c>
       <c r="K23">
-        <v>11.98819633443004</v>
+        <v>13.92197666343612</v>
       </c>
       <c r="L23">
-        <v>11.53068635074002</v>
+        <v>8.140343829274233</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.11753697869233</v>
+        <v>16.93613582499578</v>
       </c>
       <c r="C24">
-        <v>8.599254926003534</v>
+        <v>6.628690894576716</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.10188065754208</v>
+        <v>9.14883557841147</v>
       </c>
       <c r="F24">
-        <v>45.95864420414809</v>
+        <v>37.80521735914596</v>
       </c>
       <c r="G24">
-        <v>51.89976881196924</v>
+        <v>45.43614755381613</v>
       </c>
       <c r="H24">
-        <v>19.89976500780681</v>
+        <v>13.96905491829262</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.571661630116406</v>
+        <v>6.173659749866992</v>
       </c>
       <c r="K24">
-        <v>11.78290768618373</v>
+        <v>12.88910045452688</v>
       </c>
       <c r="L24">
-        <v>11.50540777733031</v>
+        <v>7.775459480123256</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.79083611525298</v>
+        <v>15.40732723970521</v>
       </c>
       <c r="C25">
-        <v>8.566019430156976</v>
+        <v>6.519210098944847</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.09819754024588</v>
+        <v>8.795331211308159</v>
       </c>
       <c r="F25">
-        <v>45.79950010621405</v>
+        <v>36.11440881113776</v>
       </c>
       <c r="G25">
-        <v>51.7182227528285</v>
+        <v>43.73290343401698</v>
       </c>
       <c r="H25">
-        <v>19.94042792154344</v>
+        <v>13.8367801603633</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.592558781969799</v>
+        <v>6.276437447303636</v>
       </c>
       <c r="K25">
-        <v>11.56721656610206</v>
+        <v>11.69286646124501</v>
       </c>
       <c r="L25">
-        <v>11.48467436754814</v>
+        <v>7.378309756334543</v>
       </c>
       <c r="M25">
         <v>0</v>
